--- a/biology/Histoire de la zoologie et de la botanique/Cornelis_Nozeman/Cornelis_Nozeman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cornelis_Nozeman/Cornelis_Nozeman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornelis Nozeman ou simplement Cornelius, est un homme d’Église et un naturaliste néerlandais né le 15 août 1720[1] et mort le 22 juillet 1786.   
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornelis Nozeman ou simplement Cornelius, est un homme d’Église et un naturaliste néerlandais né le 15 août 1720 et mort le 22 juillet 1786.   
 Il commence la publication de Nederlandsche vogelen en 1770 qui décrit, pour la première fois, tous les oiseaux des Pays-Bas. Cette collection, qui n’est achevé qu’en 1829, est illustré par Christiaan Sepp. L’ouvrage est achevé d’imprimer par le naturaliste Maarten Houttuyn (1720-1798).
 Sur les autres projets Wikimedia :
 Cornelis Nozeman, sur Wikimedia Commons
